--- a/2/3/Base 2018 = 100, Índice 2018 a 2021 - Mensual.xlsx
+++ b/2/3/Base 2018 = 100, Índice 2018 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Serie</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -515,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1381,6 +1384,26 @@
         <v>118.7</v>
       </c>
     </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44">
+        <v>109.76</v>
+      </c>
+      <c r="C44">
+        <v>108.01</v>
+      </c>
+      <c r="D44">
+        <v>111.4</v>
+      </c>
+      <c r="E44">
+        <v>107.81</v>
+      </c>
+      <c r="F44">
+        <v>118.06</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2/3/Base 2018 = 100, Índice 2018 a 2021 - Mensual.xlsx
+++ b/2/3/Base 2018 = 100, Índice 2018 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Serie</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -518,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1404,6 +1407,26 @@
         <v>118.06</v>
       </c>
     </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45">
+        <v>110.15</v>
+      </c>
+      <c r="C45">
+        <v>108.41</v>
+      </c>
+      <c r="D45">
+        <v>111.67</v>
+      </c>
+      <c r="E45">
+        <v>108.36</v>
+      </c>
+      <c r="F45">
+        <v>117.88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2/3/Base 2018 = 100, Índice 2018 a 2021 - Mensual.xlsx
+++ b/2/3/Base 2018 = 100, Índice 2018 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Serie</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -521,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1427,6 +1430,26 @@
         <v>117.88</v>
       </c>
     </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46">
+        <v>111.45</v>
+      </c>
+      <c r="C46">
+        <v>109.43</v>
+      </c>
+      <c r="D46">
+        <v>113.37</v>
+      </c>
+      <c r="E46">
+        <v>109.18</v>
+      </c>
+      <c r="F46">
+        <v>122.49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2/3/Base 2018 = 100, Índice 2018 a 2021 - Mensual.xlsx
+++ b/2/3/Base 2018 = 100, Índice 2018 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Serie</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -524,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1450,6 +1453,26 @@
         <v>122.49</v>
       </c>
     </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47">
+        <v>112.94</v>
+      </c>
+      <c r="C47">
+        <v>110.94</v>
+      </c>
+      <c r="D47">
+        <v>114.84</v>
+      </c>
+      <c r="E47">
+        <v>110.7</v>
+      </c>
+      <c r="F47">
+        <v>123.91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
